--- a/Backend/dataset/database.xlsx
+++ b/Backend/dataset/database.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,16 +427,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>sdf3safasd6s5</v>
+        <v>hygd4</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C2" t="str">
-        <v>Store 3</v>
+        <v>Store 5</v>
       </c>
       <c r="D2" t="str">
-        <v>2023-05-18T16:01:41.000Z</v>
+        <v>2023-05-21T19:29:16.000Z</v>
       </c>
       <c r="E2">
         <v>134</v>
@@ -450,16 +450,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>sdf356s5</v>
+        <v>lksfdvifd</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C3" t="str">
-        <v>Store 2</v>
+        <v>Store 6</v>
       </c>
       <c r="D3" t="str">
-        <v>2023-05-18T15:52:09.000Z</v>
+        <v>2023-05-21T19:29:06.000Z</v>
       </c>
       <c r="E3">
         <v>134</v>
@@ -468,58 +468,12 @@
         <v>1000</v>
       </c>
       <c r="G3" t="str">
-        <v>[{"itemName":"Paracetamol","quantity":10,"pricePerUnit":8},{"itemName":"Hotdog","quantity":1,"pricePerUnit":54}]</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>asasdasg</v>
-      </c>
-      <c r="B4">
-        <v>84</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Store 1</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2023-05-18T15:51:58.000Z</v>
-      </c>
-      <c r="E4">
-        <v>134</v>
-      </c>
-      <c r="F4">
-        <v>1000</v>
-      </c>
-      <c r="G4" t="str">
-        <v>[{"itemName":"Paracetamol","quantity":10,"pricePerUnit":8},{"itemName":"Hotdog","quantity":1,"pricePerUnit":54}]</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>dsfsd</v>
-      </c>
-      <c r="B5">
-        <v>84</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Store 1</v>
-      </c>
-      <c r="D5" t="str">
-        <v>2023-05-18T15:51:53.000Z</v>
-      </c>
-      <c r="E5">
-        <v>134</v>
-      </c>
-      <c r="F5">
-        <v>1000</v>
-      </c>
-      <c r="G5" t="str">
         <v>[{"itemName":"Paracetamol","quantity":10,"pricePerUnit":8},{"itemName":"Hotdog","quantity":1,"pricePerUnit":54}]</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/dataset/database.xlsx
+++ b/Backend/dataset/database.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,53 +427,145 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>hygd4</v>
+        <v>kasjgdyefj123</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" t="str">
-        <v>Store 5</v>
+        <v>Store 2</v>
       </c>
       <c r="D2" t="str">
-        <v>2023-05-21T19:29:16.000Z</v>
+        <v>2023-05-23T01:59:37.000Z</v>
       </c>
       <c r="E2">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="G2" t="str">
-        <v>[{"itemName":"Paracetamol","quantity":10,"pricePerUnit":8},{"itemName":"Hotdog","quantity":1,"pricePerUnit":54}]</v>
+        <v>[{"itemName":"Medicine 1","quantity":21,"pricePerUnit":8},{"itemName":"Food2","quantity":1,"pricePerUnit":54}]</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>abc123</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Store 2</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2023-05-22T03:31:44.000Z</v>
+      </c>
+      <c r="E3">
+        <v>222</v>
+      </c>
+      <c r="F3">
+        <v>210</v>
+      </c>
+      <c r="G3" t="str">
+        <v>[{"itemName":"Medicine 1","quantity":21,"pricePerUnit":8},{"itemName":"Food2","quantity":1,"pricePerUnit":54}]</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>hsdkbdslfhjsds</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Store 2</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2023-05-22T03:30:50.000Z</v>
+      </c>
+      <c r="E4">
+        <v>134</v>
+      </c>
+      <c r="F4">
+        <v>900</v>
+      </c>
+      <c r="G4" t="str">
+        <v>[{"itemName":"Paracetamol","quantity":10,"pricePerUnit":8},{"itemName":"Hotdog","quantity":1,"pricePerUnit":54}]</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>hsdkbhgs</v>
+      </c>
+      <c r="B5">
+        <v>89</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Store 1</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2023-05-22T03:24:00.000Z</v>
+      </c>
+      <c r="E5">
+        <v>134</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5" t="str">
+        <v>[{"itemName":"Paracetamol","quantity":10,"pricePerUnit":8},{"itemName":"Hotdog","quantity":1,"pricePerUnit":54}]</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>hygd4</v>
+      </c>
+      <c r="B6">
+        <v>89</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Store 5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2023-05-21T19:29:16.000Z</v>
+      </c>
+      <c r="E6">
+        <v>134</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6" t="str">
+        <v>[{"itemName":"Paracetamol","quantity":10,"pricePerUnit":8},{"itemName":"Hotdog","quantity":1,"pricePerUnit":54}]</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
         <v>lksfdvifd</v>
       </c>
-      <c r="B3">
+      <c r="B7">
         <v>89</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C7" t="str">
         <v>Store 6</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D7" t="str">
         <v>2023-05-21T19:29:06.000Z</v>
       </c>
-      <c r="E3">
+      <c r="E7">
         <v>134</v>
       </c>
-      <c r="F3">
+      <c r="F7">
         <v>1000</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G7" t="str">
         <v>[{"itemName":"Paracetamol","quantity":10,"pricePerUnit":8},{"itemName":"Hotdog","quantity":1,"pricePerUnit":54}]</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
   </ignoredErrors>
 </worksheet>
 </file>